--- a/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_1.1_KS_Holdout_seed_0/metrics/Trial_485__Reeval_Sobol_Modell_1.1.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_1.1_KS_Holdout_seed_0/metrics/Trial_485__Reeval_Sobol_Modell_1.1.xlsx
@@ -6127,10 +6127,10 @@
                   <c:v>1.811959385871887</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.541123867034912</c:v>
+                  <c:v>1.541121602058411</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>46.25696182250977</c:v>
+                  <c:v>46.25696563720703</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1.554301500320435</c:v>
@@ -6139,7 +6139,7 @@
                   <c:v>22.82881927490234</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>54.48405838012695</c:v>
+                  <c:v>54.48406600952148</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>48.64154815673828</c:v>
@@ -6154,7 +6154,7 @@
                   <c:v>2.61560320854187</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.210875988006592</c:v>
+                  <c:v>4.210878372192383</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>51.84770965576172</c:v>
@@ -6163,7 +6163,7 @@
                   <c:v>13.42402172088623</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>53.22507476806641</c:v>
+                  <c:v>53.22507095336914</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>48.67104721069336</c:v>
@@ -6178,19 +6178,19 @@
                   <c:v>50.67488098144531</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>40.72637176513672</c:v>
+                  <c:v>40.72637939453125</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>51.78334045410156</c:v>
+                  <c:v>51.7833366394043</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.9218755960464478</c:v>
+                  <c:v>0.9218801259994507</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>49.71549224853516</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>52.3524284362793</c:v>
+                  <c:v>52.35242462158203</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>2.437540054321289</c:v>
@@ -6205,22 +6205,22 @@
                   <c:v>53.72711563110352</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>50.80790328979492</c:v>
+                  <c:v>50.80789947509766</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>48.94612121582031</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.2304181754589081</c:v>
+                  <c:v>0.2304158955812454</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>2.672646999359131</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>4.096790790557861</c:v>
+                  <c:v>4.096792697906494</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.416429877281189</c:v>
+                  <c:v>1.416427612304688</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>8.412629127502441</c:v>
@@ -6235,22 +6235,22 @@
                   <c:v>48.57035064697266</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2.906427383422852</c:v>
+                  <c:v>2.906429767608643</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>47.61349868774414</c:v>
+                  <c:v>47.61350250244141</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.416429877281189</c:v>
+                  <c:v>1.416427612304688</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>5.986564159393311</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>56.5762825012207</c:v>
+                  <c:v>56.57627868652344</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>51.70113754272461</c:v>
+                  <c:v>51.70113372802734</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>1.645719647407532</c:v>
@@ -6259,25 +6259,25 @@
                   <c:v>55.30659866333008</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>53.25320434570312</c:v>
+                  <c:v>53.25320816040039</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>44.46614837646484</c:v>
+                  <c:v>44.46615219116211</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>52.05322647094727</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>4.830769062042236</c:v>
+                  <c:v>4.830764770507812</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>3.077700138092041</c:v>
+                  <c:v>3.077702522277832</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-1.498885273933411</c:v>
+                  <c:v>-1.498889803886414</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.871052384376526</c:v>
+                  <c:v>1.871050119400024</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>48.59181213378906</c:v>
@@ -6289,19 +6289,19 @@
                   <c:v>3.95745325088501</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>14.81748867034912</c:v>
+                  <c:v>14.81748962402344</c:v>
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>51.53221130371094</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>51.40769958496094</c:v>
+                  <c:v>51.40769195556641</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1.616804599761963</c:v>
+                  <c:v>1.61680006980896</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>55.10881805419922</c:v>
+                  <c:v>55.10881423950195</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>1.308936834335327</c:v>
@@ -6313,13 +6313,13 @@
                   <c:v>52.06587982177734</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.06531822681427</c:v>
+                  <c:v>1.065315961837769</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>-0.2701744437217712</c:v>
+                  <c:v>-0.2701721787452698</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.416429877281189</c:v>
+                  <c:v>1.416427612304688</c:v>
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>56.79076766967773</c:v>
@@ -6328,7 +6328,7 @@
                   <c:v>1.680554628372192</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>5.451047897338867</c:v>
+                  <c:v>5.451045513153076</c:v>
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>2.088853597640991</c:v>
@@ -6340,10 +6340,10 @@
                   <c:v>50.95978927612305</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1.291207075119019</c:v>
+                  <c:v>1.29120934009552</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1.68269956111908</c:v>
+                  <c:v>1.682697296142578</c:v>
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>51.28069305419922</c:v>
@@ -6355,7 +6355,7 @@
                   <c:v>56.32192993164062</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>9.92243766784668</c:v>
+                  <c:v>9.922436714172363</c:v>
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>19.43610954284668</c:v>
@@ -6364,7 +6364,7 @@
                   <c:v>3.164456844329834</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1.416429877281189</c:v>
+                  <c:v>1.416427612304688</c:v>
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>2.370651245117188</c:v>
@@ -6385,10 +6385,10 @@
                   <c:v>60.41838836669922</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>2.290133237838745</c:v>
+                  <c:v>2.290131092071533</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.820710301399231</c:v>
+                  <c:v>0.820705771446228</c:v>
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>53.55920791625977</c:v>
@@ -6397,34 +6397,34 @@
                   <c:v>49.94308090209961</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>44.88008117675781</c:v>
+                  <c:v>44.88008880615234</c:v>
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>3.435436010360718</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>1.193445086479187</c:v>
+                  <c:v>1.193442821502686</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>1.353835582733154</c:v>
+                  <c:v>1.353837847709656</c:v>
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>50.13418579101562</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>50.11846923828125</c:v>
+                  <c:v>50.11847305297852</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>42.26556015014648</c:v>
+                  <c:v>42.26556396484375</c:v>
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>49.82340240478516</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>48.92098617553711</c:v>
+                  <c:v>48.92098999023438</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>1.416429877281189</c:v>
+                  <c:v>1.416427612304688</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7215,7 +7215,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.541123867034912</v>
+        <v>1.541121602058411</v>
       </c>
       <c r="G5">
         <v>77</v>
@@ -7247,7 +7247,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>46.25696182250977</v>
+        <v>46.25696563720703</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -7331,7 +7331,7 @@
         <v>40.0699</v>
       </c>
       <c r="F9">
-        <v>54.48405838012695</v>
+        <v>54.48406600952148</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -7431,7 +7431,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>4.210875988006592</v>
+        <v>4.210878372192383</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -7491,7 +7491,7 @@
         <v>51.572</v>
       </c>
       <c r="F17">
-        <v>53.22507476806641</v>
+        <v>53.22507095336914</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -7591,7 +7591,7 @@
         <v>34.2646</v>
       </c>
       <c r="F22">
-        <v>40.72637176513672</v>
+        <v>40.72637939453125</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -7611,7 +7611,7 @@
         <v>50.398</v>
       </c>
       <c r="F23">
-        <v>51.78334045410156</v>
+        <v>51.7833366394043</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -7631,7 +7631,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.9218755960464478</v>
+        <v>0.9218801259994507</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -7671,7 +7671,7 @@
         <v>49.6745</v>
       </c>
       <c r="F26">
-        <v>52.3524284362793</v>
+        <v>52.35242462158203</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7771,7 +7771,7 @@
         <v>51.9912</v>
       </c>
       <c r="F31">
-        <v>50.80790328979492</v>
+        <v>50.80789947509766</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7811,7 +7811,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>0.2304181754589081</v>
+        <v>0.2304158955812454</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7851,7 +7851,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>4.096790790557861</v>
+        <v>4.096792697906494</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7871,7 +7871,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.416429877281189</v>
+        <v>1.416427612304688</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7971,7 +7971,7 @@
         <v>45.4106</v>
       </c>
       <c r="F41">
-        <v>2.906427383422852</v>
+        <v>2.906429767608643</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -7991,7 +7991,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>47.61349868774414</v>
+        <v>47.61350250244141</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -8011,7 +8011,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.416429877281189</v>
+        <v>1.416427612304688</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -8051,7 +8051,7 @@
         <v>61.4498</v>
       </c>
       <c r="F45">
-        <v>56.5762825012207</v>
+        <v>56.57627868652344</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -8071,7 +8071,7 @@
         <v>49.825</v>
       </c>
       <c r="F46">
-        <v>51.70113754272461</v>
+        <v>51.70113372802734</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -8131,7 +8131,7 @@
         <v>32.9114</v>
       </c>
       <c r="F49">
-        <v>53.25320434570312</v>
+        <v>53.25320816040039</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -8151,7 +8151,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>44.46614837646484</v>
+        <v>44.46615219116211</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -8191,7 +8191,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>4.830769062042236</v>
+        <v>4.830764770507812</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -8211,7 +8211,7 @@
         <v>34.2886</v>
       </c>
       <c r="F53">
-        <v>3.077700138092041</v>
+        <v>3.077702522277832</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -8231,7 +8231,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>-1.498885273933411</v>
+        <v>-1.498889803886414</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -8251,7 +8251,7 @@
         <v>39.3649</v>
       </c>
       <c r="F55">
-        <v>1.871052384376526</v>
+        <v>1.871050119400024</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -8331,7 +8331,7 @@
         <v>46.476</v>
       </c>
       <c r="F59">
-        <v>14.81748867034912</v>
+        <v>14.81748962402344</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -8371,7 +8371,7 @@
         <v>35.7539</v>
       </c>
       <c r="F61">
-        <v>51.40769958496094</v>
+        <v>51.40769195556641</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -8391,7 +8391,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.616804599761963</v>
+        <v>1.61680006980896</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -8411,7 +8411,7 @@
         <v>49.8526</v>
       </c>
       <c r="F63">
-        <v>55.10881805419922</v>
+        <v>55.10881423950195</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -8491,7 +8491,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.06531822681427</v>
+        <v>1.065315961837769</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -8511,7 +8511,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>-0.2701744437217712</v>
+        <v>-0.2701721787452698</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -8531,7 +8531,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.416429877281189</v>
+        <v>1.416427612304688</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -8591,7 +8591,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>5.451047897338867</v>
+        <v>5.451045513153076</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -8671,7 +8671,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.291207075119019</v>
+        <v>1.29120934009552</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -8691,7 +8691,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.68269956111908</v>
+        <v>1.682697296142578</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -8771,7 +8771,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>9.92243766784668</v>
+        <v>9.922436714172363</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -8831,7 +8831,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.416429877281189</v>
+        <v>1.416427612304688</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -8971,7 +8971,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>2.290133237838745</v>
+        <v>2.290131092071533</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -8991,7 +8991,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>0.820710301399231</v>
+        <v>0.820705771446228</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -9051,7 +9051,7 @@
         <v>43.387</v>
       </c>
       <c r="F95">
-        <v>44.88008117675781</v>
+        <v>44.88008880615234</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -9091,7 +9091,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.193445086479187</v>
+        <v>1.193442821502686</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -9111,7 +9111,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.353835582733154</v>
+        <v>1.353837847709656</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -9151,7 +9151,7 @@
         <v>46.0374</v>
       </c>
       <c r="F100">
-        <v>50.11846923828125</v>
+        <v>50.11847305297852</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -9171,7 +9171,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>42.26556015014648</v>
+        <v>42.26556396484375</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -9211,7 +9211,7 @@
         <v>58.1678</v>
       </c>
       <c r="F103">
-        <v>48.92098617553711</v>
+        <v>48.92098999023438</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -9231,7 +9231,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.416429877281189</v>
+        <v>1.416427612304688</v>
       </c>
     </row>
     <row r="105" spans="1:6">
